--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3389875.233742265</v>
+        <v>3387479.577737083</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>77.49445542300435</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>75.08156458831662</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.84094506779499</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>127.4667374017716</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11.99739795242794</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>113.9254916224889</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>49.82727138455632</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.0827198314471</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>346.8028801224016</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>98.86509346158785</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>126.1605539371079</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.0919561226079</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>155.2435806730856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518788</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>26.1362719570587</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560524</v>
       </c>
     </row>
     <row r="36">
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,61 +4304,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>925.3036175845675</v>
+        <v>836.3295715509023</v>
       </c>
       <c r="C2" t="n">
-        <v>556.3411006441559</v>
+        <v>836.3295715509023</v>
       </c>
       <c r="D2" t="n">
-        <v>556.3411006441559</v>
+        <v>478.0638729441517</v>
       </c>
       <c r="E2" t="n">
-        <v>478.0638729441515</v>
+        <v>478.0638729441517</v>
       </c>
       <c r="F2" t="n">
-        <v>471.118372194948</v>
+        <v>471.1183721949483</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>458.7065149272269</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870228</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178248</v>
+        <v>287.6947354520175</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136017</v>
+        <v>525.3175166702088</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.69769069362</v>
+        <v>821.3880832278107</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929205</v>
+        <v>1462.411292847705</v>
       </c>
       <c r="O2" t="n">
-        <v>2248.314393858356</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147459</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
         <v>1982.600918459332</v>
@@ -4370,10 +4370,10 @@
         <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>925.3036175845675</v>
+        <v>1222.929411615024</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.3036175845675</v>
+        <v>1222.929411615024</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093824</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>323.3685994072338</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600656</v>
+        <v>831.5342839343298</v>
       </c>
       <c r="M3" t="n">
-        <v>1173.98268227996</v>
+        <v>1472.557493554224</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.302562220578</v>
+        <v>2113.580703174117</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2352.385654925576</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.7955884261448</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="C4" t="n">
-        <v>793.7955884261448</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="D4" t="n">
-        <v>643.6789490138091</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E4" t="n">
-        <v>495.765855431416</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F4" t="n">
-        <v>348.8759079335056</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G4" t="n">
-        <v>180.5541355266295</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521422</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>884.3189032968598</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>595.1822762889619</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>595.1822762889619</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.785139324162</v>
+        <v>305.7651062520013</v>
       </c>
       <c r="X4" t="n">
-        <v>793.7955884261448</v>
+        <v>305.7651062520013</v>
       </c>
       <c r="Y4" t="n">
-        <v>793.7955884261448</v>
+        <v>84.97252710847121</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.039983044337</v>
+        <v>809.7335931689806</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.039983044337</v>
+        <v>440.7710762285689</v>
       </c>
       <c r="D5" t="n">
-        <v>1164.039983044337</v>
+        <v>82.50537762181841</v>
       </c>
       <c r="E5" t="n">
-        <v>778.251730446093</v>
+        <v>82.50537762181841</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2658256564855</v>
+        <v>75.55987687261494</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>63.91843911315095</v>
       </c>
       <c r="H5" t="n">
-        <v>51.7998553228197</v>
+        <v>63.91843911315095</v>
       </c>
       <c r="I5" t="n">
         <v>51.7998553228197</v>
@@ -4568,7 +4568,7 @@
         <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477383</v>
@@ -4583,7 +4583,7 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507461</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2474.916511976855</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U5" t="n">
-        <v>2221.337283919102</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="V5" t="n">
-        <v>1890.274396575531</v>
+        <v>1926.107338675986</v>
       </c>
       <c r="W5" t="n">
-        <v>1537.505741305417</v>
+        <v>1573.338683405872</v>
       </c>
       <c r="X5" t="n">
-        <v>1164.039983044337</v>
+        <v>1199.872925144792</v>
       </c>
       <c r="Y5" t="n">
-        <v>1164.039983044337</v>
+        <v>809.7335931689806</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682816</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845964</v>
+        <v>942.9699568457225</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1699.68540766379</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518195</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.6557187433658</v>
+        <v>207.6765531991404</v>
       </c>
       <c r="C7" t="n">
-        <v>496.7195358154589</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D7" t="n">
-        <v>346.6028964031232</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F7" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4750,25 +4750,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1369.1223369908</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.437848784913</v>
+        <v>906.731738964358</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.437848784913</v>
+        <v>617.3145689273974</v>
       </c>
       <c r="X7" t="n">
-        <v>886.4482978868959</v>
+        <v>389.3250180293801</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.6557187433658</v>
+        <v>389.3250180293801</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>855.1457204386477</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="C8" t="n">
-        <v>486.183203498236</v>
+        <v>1183.755747759855</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8772639806586</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8772639806586</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135508</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477376</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187501</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507461</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2490.129035371705</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2490.129035371705</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083232</v>
+        <v>2236.549807313952</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739661</v>
+        <v>1905.486919970381</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.350650739661</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="X8" t="n">
-        <v>1631.884892478581</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="Y8" t="n">
-        <v>1241.745560502769</v>
+        <v>1552.718264700267</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457224</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.68540766379</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>2034.614088379321</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609303</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="G10" t="n">
         <v>51.7998553228197</v>
@@ -4960,16 +4960,16 @@
         <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080545</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225442</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317419</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>360.8832231198351</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098242</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819173</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695815</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>202.303641104158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6546,13 +6546,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6783,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,16 +7081,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,16 +7169,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797186</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7640,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.937478165969</v>
       </c>
       <c r="O2" t="n">
-        <v>361.6417955681981</v>
+        <v>343.1531561769538</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.1946181815976</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,19 +8061,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>301.5907184588542</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>380.8926041660676</v>
       </c>
       <c r="N3" t="n">
-        <v>342.4101106134198</v>
+        <v>359.2821607945065</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177567</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.7491560325417</v>
       </c>
       <c r="P6" t="n">
-        <v>245.4670104377197</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177567</v>
+        <v>119.3759750973111</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.749156032542</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906581</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>70.46607471595152</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731535.1779719512</v>
+        <v>731535.1779719513</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216161</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898935</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151601</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,40 +26424,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695041</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695017</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695082</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.48053169506</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695065</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695059</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695059</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531695036</v>
+        <v>6287.480531695104</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695116</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
         <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449876.256709694</v>
+        <v>-449876.2567096928</v>
       </c>
       <c r="C6" t="n">
-        <v>343625.3890012052</v>
+        <v>343625.3890012039</v>
       </c>
       <c r="D6" t="n">
-        <v>516389.7487910977</v>
+        <v>516389.7487910975</v>
       </c>
       <c r="E6" t="n">
-        <v>118133.0616196523</v>
+        <v>118098.3236942161</v>
       </c>
       <c r="F6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="G6" t="n">
-        <v>619021.9293654028</v>
+        <v>618987.1914399678</v>
       </c>
       <c r="H6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399674</v>
       </c>
       <c r="I6" t="n">
-        <v>619021.9293654035</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="J6" t="n">
-        <v>449607.912539355</v>
+        <v>449573.1746139195</v>
       </c>
       <c r="K6" t="n">
-        <v>619021.9293654034</v>
+        <v>618987.1914399678</v>
       </c>
       <c r="L6" t="n">
-        <v>619021.9293654033</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="M6" t="n">
-        <v>488137.4724611677</v>
+        <v>488102.7345357325</v>
       </c>
       <c r="N6" t="n">
-        <v>619021.9293654033</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="O6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399674</v>
       </c>
       <c r="P6" t="n">
-        <v>619021.9293654029</v>
+        <v>618987.1914399675</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498444</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.827035323175771e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.725434152235</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.827035323175771e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>304.4359146492574</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>294.6495360901524</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>146.9910351141423</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>22.73615026214887</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>52.83816749525179</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>92.63341432327184</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>117.4195497140715</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>11.14387938825854</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.880161498281382</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>24.07031531286519</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>40.13587291362161</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105.4310422139831</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.157518219205768e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31528,28 +31528,28 @@
         <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.151623085328</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839331</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31607,16 +31607,16 @@
         <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973637</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274805</v>
@@ -31625,7 +31625,7 @@
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31686,7 +31686,7 @@
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
@@ -31704,13 +31704,13 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.24036071484306</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
         <v>0.0924301367852307</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,16 +33266,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000311</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.4293051161563</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.0611783410121</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O2" t="n">
-        <v>639.5369665951016</v>
+        <v>621.0483272038564</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>202.3276033223259</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185455</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>122.6495881517965</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>513.2986712394909</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N3" t="n">
-        <v>630.6261413541603</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>241.2171229812708</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289992</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>65.9375255168693</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35027,13 +35027,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>501.0609547350983</v>
       </c>
       <c r="P6" t="n">
-        <v>497.46370525087</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153407</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873422</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.7162976096198</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352462</v>
+        <v>419.6910752148007</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>414.7458508456922</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297622</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978359</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
         <v>279.5237680912597</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
